--- a/Znode9X/TestData/ProductAttributes/ProductAttribute(ListPage)TestData.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttribute(ListPage)TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
   <si>
     <t>S.No.</t>
   </si>
@@ -150,18 +150,12 @@
     <t>SendKeys</t>
   </si>
   <si>
-    <t>Znode9X.addNew.username</t>
-  </si>
-  <si>
     <t>admin@znode.com</t>
   </si>
   <si>
     <t>Enter correct password</t>
   </si>
   <si>
-    <t>Znode9X.addNew.password</t>
-  </si>
-  <si>
     <t>admin12345</t>
   </si>
   <si>
@@ -171,133 +165,52 @@
     <t>Click</t>
   </si>
   <si>
-    <t>Znode9X.addNew.loginbutton</t>
-  </si>
-  <si>
     <t>Click on Menu button</t>
   </si>
   <si>
-    <t>Znode9X.addNew.menu</t>
-  </si>
-  <si>
     <t>Click on products attribute in PIM module</t>
   </si>
   <si>
-    <t>Znode9X.addNew.productAttributes</t>
-  </si>
-  <si>
-    <t>Click on Add New</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.addnewoption</t>
-  </si>
-  <si>
-    <t>Keep all the fields Blank and click on Cancel button</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.cancel</t>
-  </si>
-  <si>
-    <t>It navigates back to Attribute page.</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.cancelValidation</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>Keep all the fields blank and Click on Save Button</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.save</t>
-  </si>
-  <si>
-    <t>Check for Validation</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.codeValidation</t>
-  </si>
-  <si>
-    <t>Please enter attribute code.</t>
-  </si>
-  <si>
-    <t>Click on Cancel button</t>
-  </si>
-  <si>
-    <t>Keep all the fields blank and click on Save&amp;Close Button</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.save&amp;Close</t>
-  </si>
-  <si>
-    <t>Select a text dropdown in Attribute Type</t>
-  </si>
-  <si>
-    <t>DropDown</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.attributeType</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Enter the value in Code field and keep locale field Blank</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.code</t>
-  </si>
-  <si>
-    <t>Colour</t>
-  </si>
-  <si>
-    <t>Click on Save</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.saveValidation</t>
-  </si>
-  <si>
-    <t>Record created successfully.</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Click on Locale/Values tab</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.locale/values</t>
-  </si>
-  <si>
-    <t>Enter value in English field</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.english</t>
-  </si>
-  <si>
-    <t>Enter value in French field</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.french</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Enter value in German Field</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.german</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter value in Spanish Field </t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.spanish</t>
+    <t>Do not click on any attribute and click on Tools directly</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.tools</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.username</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.password</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.loginbutton</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.menu</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.productAttributes</t>
+  </si>
+  <si>
+    <t>Click on Delete</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.toolsDelete</t>
+  </si>
+  <si>
+    <t>Error pop ups appear</t>
+  </si>
+  <si>
+    <t>Click on Attribute Code to select all the attributes at once</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributueCodeCheckBox</t>
+  </si>
+  <si>
+    <t>Click on Tools</t>
+  </si>
+  <si>
+    <t>PopUps</t>
   </si>
 </sst>
 </file>
@@ -465,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -494,11 +407,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -824,7 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1112,18 +1023,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet3!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1132,7 +1031,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1039,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1195,10 +1094,10 @@
       <c r="F2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="12"/>
@@ -1218,15 +1117,15 @@
         <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="12"/>
@@ -1240,21 +1139,21 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="12"/>
@@ -1268,21 +1167,21 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="12"/>
@@ -1296,21 +1195,21 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="12"/>
@@ -1324,21 +1223,21 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="12"/>
@@ -1352,25 +1251,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1383,22 +1282,22 @@
         <v>58</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="F9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -1411,694 +1310,366 @@
         <v>60</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="D11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="D12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="20">
-        <v>10</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="B13" s="15">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20">
-        <v>11</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B14" s="15">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="E14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="20">
-        <v>12</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="20">
-        <v>13</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="25">
+      <c r="B15" s="15">
         <v>14</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="C15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="25">
-        <v>15</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="25">
-        <v>16</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="25">
-        <v>17</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="30">
-        <v>18</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="30">
-        <v>19</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="30">
-        <v>20</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="30">
-        <v>21</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="30">
-        <v>22</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="30">
-        <v>23</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="30">
-        <v>24</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="30">
-        <v>25</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="30">
-        <v>26</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="30">
-        <v>27</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="30">
-        <v>28</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="30">
-        <v>29</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="30">
-        <v>30</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="30">
-        <v>31</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="30">
-        <v>32</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="30">
-        <v>33</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Znode9X/TestData/ProductAttributes/ProductAttribute(ListPage)TestData.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttribute(ListPage)TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="95">
   <si>
     <t>S.No.</t>
   </si>
@@ -198,26 +198,116 @@
     <t>Znode9X.listPage.toolsDelete</t>
   </si>
   <si>
+    <t>Click on Attribute Code to select all the attributes at once</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributueCodeCheckBox</t>
+  </si>
+  <si>
+    <t>Click on Tools</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.okDelete</t>
+  </si>
+  <si>
+    <t>Attribute Page appears</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributePageValidation</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributeCodeDeleteCancel</t>
+  </si>
+  <si>
+    <t>Error pop ups appear, then click on Ok</t>
+  </si>
+  <si>
+    <t>Confirm Pop Up appears, then click on cancel</t>
+  </si>
+  <si>
     <t>Error pop ups appear</t>
   </si>
   <si>
-    <t>Click on Attribute Code to select all the attributes at once</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.attributueCodeCheckBox</t>
-  </si>
-  <si>
-    <t>Click on Tools</t>
-  </si>
-  <si>
-    <t>PopUps</t>
+    <t>Znode9X.listPage.attributeCodeDeleteOk</t>
+  </si>
+  <si>
+    <t>Attribute does not get deleted as it is system defined and validation message appears</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.systemDefinedValidation</t>
+  </si>
+  <si>
+    <t>Failed to delete some attribute as it may be system defined or because of some association.</t>
+  </si>
+  <si>
+    <t>Click on Delete icon</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.deleteIcon</t>
+  </si>
+  <si>
+    <t>Click on Cancel on confirm pop up</t>
+  </si>
+  <si>
+    <t>Znode9x.listPage.confirmDeleteCancel</t>
+  </si>
+  <si>
+    <t>Click on Ok on confirm pop up</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.confirmDeletOk</t>
+  </si>
+  <si>
+    <t>Check for Delete Validation</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.confirmDeleteValidation</t>
+  </si>
+  <si>
+    <t>Record deleted successfully.</t>
+  </si>
+  <si>
+    <t>Enter attribute name in search field</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.searchField</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Click on search icon</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.searchIcon</t>
+  </si>
+  <si>
+    <t>Click on delete icon</t>
+  </si>
+  <si>
+    <t>Click on Ok in confirmation pop up</t>
+  </si>
+  <si>
+    <t>Check for delete validation</t>
+  </si>
+  <si>
+    <t>Click on cancel search icon</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.cancelSearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +346,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF263238"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -410,22 +493,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1028,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1114,7 @@
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,7 +1336,7 @@
       <c r="F8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -1290,7 +1364,7 @@
       <c r="F9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="17" t="s">
@@ -1307,18 +1381,18 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="17" t="s">
@@ -1329,31 +1403,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="15">
         <v>10</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="C11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -1363,21 +1437,25 @@
         <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="G12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -1386,22 +1464,26 @@
       <c r="B13" s="15">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>58</v>
+      <c r="C13" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="E13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1411,19 +1493,25 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1432,244 +1520,554 @@
       <c r="B15" s="15">
         <v>14</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="C15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="A16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="15">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="A18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="15">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="A19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="15">
+        <v>18</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="A20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15">
+        <v>19</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="A21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="15">
+        <v>20</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="A22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="15">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="15">
+        <v>22</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="A24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="15">
+        <v>23</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="A25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="15">
+        <v>24</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="A26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="15">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="A27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="15">
+        <v>26</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="A28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="15">
+        <v>27</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="A29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="15">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
+      <c r="A30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="15">
+        <v>29</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
+      <c r="A31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="15">
+        <v>30</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
+      <c r="A32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="15">
+        <v>31</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
+      <c r="A33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="15">
+        <v>32</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
